--- a/data/trans_bre/P23_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>3,22</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>47,58%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,09%</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>-12,05%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>134,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-48,6%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,99</t>
+          <t>-3,52; 6,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 3,36</t>
+          <t>-4,88; 3,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 8,81</t>
+          <t>-1,49; 9,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 11,86</t>
+          <t>-5,52; 4,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 374,28</t>
+          <t>-7,26; 12,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-75,96; 206,06</t>
+          <t>-10,12; 1,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,79; 846,27</t>
+          <t>-62,93; 377,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 273,69</t>
+          <t>-72,64; 186,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-45,33; 972,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-74,0; 297,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-53,69; 276,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-87,74; 77,19</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-4,98</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,61%</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-58,32%</t>
+          <t>-30,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-37,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-58,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-45,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,15</t>
+          <t>-3,8; 3,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,77</t>
+          <t>-13,76; 2,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 4,36</t>
+          <t>-2,82; 4,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 0,35</t>
+          <t>-21,58; 3,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,81; 327,79</t>
+          <t>-12,43; 0,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,05; 272,5</t>
+          <t>-13,45; 1,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 330,32</t>
+          <t>-73,41; 284,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,78; 38,54</t>
+          <t>-100,0; 193,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-65,17; 302,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-86,81; 81,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-86,09; 35,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-75,8; 32,26</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-2,14</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>24,9%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,73%</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,54%</t>
+          <t>-46,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-18,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,98%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-18,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-52,5%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,93</t>
+          <t>-3,09; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 0,22</t>
+          <t>-8,44; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,77</t>
+          <t>-4,52; 2,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 3,66</t>
+          <t>-5,26; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,26; 201,5</t>
+          <t>-8,37; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,39; 11,86</t>
+          <t>-12,41; -0,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 73,2</t>
+          <t>-43,9; 157,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 49,24</t>
+          <t>-87,29; 37,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-58,34; 59,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-55,48; 85,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-56,58; 45,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-77,95; 3,71</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>43,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>82,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-23,25%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,77</t>
+          <t>-5,07; 6,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,27</t>
+          <t>-2,85; 7,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,41</t>
+          <t>-1,43; 6,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 11,83</t>
+          <t>1,09; 10,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 168,65</t>
+          <t>-2,54; 11,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 147,62</t>
+          <t>-9,1; 3,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 136,93</t>
+          <t>-44,58; 146,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 123,37</t>
+          <t>-28,55; 162,34</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-20,32; 144,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 251,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,52; 112,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-53,47; 29,66</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,53%</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-33,02%</t>
+          <t>-19,08%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>92,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-32,99%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,73</t>
+          <t>-3,79; 6,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 3,16</t>
+          <t>-8,99; 3,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 6,18</t>
+          <t>-2,91; 6,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 0,53</t>
+          <t>-0,48; 11,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 144,0</t>
+          <t>-13,22; 1,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,91; 72,05</t>
+          <t>-7,75; 6,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 140,85</t>
+          <t>-41,15; 126,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-60,54; 4,79</t>
+          <t>-67,84; 65,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-34,51; 137,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 278,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-58,33; 16,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-38,76; 52,36</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>104,73%</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-41,46%</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>119,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>-43,15%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>105,61%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>55,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>58,77%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 10,89</t>
+          <t>0,03; 12,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 1,26</t>
+          <t>-10,39; 0,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,93</t>
+          <t>-3,4; 7,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 12,97</t>
+          <t>-1,33; 11,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 399,98</t>
+          <t>-2,89; 14,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,3; 20,08</t>
+          <t>-2,42; 13,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 163,31</t>
+          <t>-12,75; 463,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 260,05</t>
+          <t>-72,49; 8,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-41,35; 199,15</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-23,43; 427,72</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,73; 264,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-20,09; 220,52</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-16,38%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30,92%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-15,01%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,09</t>
+          <t>0,05; 4,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,2</t>
+          <t>-3,26; 0,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,21</t>
+          <t>-0,13; 3,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,19</t>
+          <t>-1,16; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 95,21</t>
+          <t>-3,07; 3,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 22,8</t>
+          <t>-4,58; 1,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 72,11</t>
+          <t>-1,96; 100,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 32,51</t>
+          <t>-39,88; 14,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 75,76</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 86,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-23,84; 30,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-33,75; 13,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
